--- a/temp/pages/StructureDefinition-ITBActivityDefinition.xlsx
+++ b/temp/pages/StructureDefinition-ITBActivityDefinition.xlsx
@@ -977,7 +977,7 @@
     <t>ActivityDefinition.code</t>
   </si>
   <si>
-    <t>ServiceTypeCode</t>
+    <t>ServiceTypeCode used as a source code in a dynamic Code System. Used in url:s for linking to this service from external webpages</t>
   </si>
   <si>
     <t>Detailed description of the type of activity; e.g. What lab test, what procedure, what kind of encounter.</t>
@@ -1713,7 +1713,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="116.84765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
